--- a/source_analyses/eu/2011/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/eu/2011/6_residences/6_residences_source_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10540" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Odyssee" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="115">
   <si>
     <t>Small applicances</t>
   </si>
@@ -368,6 +368,9 @@
   <si>
     <t xml:space="preserve">[2] JRC (2009) Electricity Consumption and Efficiency Trends in European Union, http://iet.jrc.ec.europa.eu/sites/default/files/documents/ie_energy_press_event/status_report_2009.pdf
 </t>
+  </si>
+  <si>
+    <t>Enerdata_2014_Energy efficiency trends for households in the EU (http://refman.et-model.com/publications/1868)</t>
   </si>
 </sst>
 </file>
@@ -531,8 +534,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,14 +756,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -797,6 +804,8 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -837,6 +846,8 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1166,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1508,7 +1519,12 @@
       <c r="B31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3258,7 +3274,7 @@
       <c r="C13" s="71">
         <v>4.7E-2</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="73">
         <f t="shared" si="0"/>
         <v>135949.08671999999</v>
       </c>
@@ -3280,7 +3296,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="51"/>
       <c r="F14" s="43">
         <f>G14/G$27</f>
@@ -3757,7 +3773,7 @@
         <f>C9</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="73">
         <f>D9</f>
         <v>208262.43071999997</v>
       </c>
@@ -3765,7 +3781,7 @@
         <f>F9</f>
         <v>6.3694267515923567E-2</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="72">
         <f>G9*TWh_to_TJ</f>
         <v>183600</v>
       </c>
@@ -3775,9 +3791,9 @@
         <v>7</v>
       </c>
       <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+      <c r="D43" s="73"/>
       <c r="F43" s="71"/>
-      <c r="G43" s="73"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
